--- a/ocms/src/test/resources/TestData/FaxSentDetailsReport.xlsx
+++ b/ocms/src/test/resources/TestData/FaxSentDetailsReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="8040" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="8040" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
+    <sheet name="Queries" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="52">
   <si>
     <t>Report Channel</t>
   </si>
@@ -152,6 +152,49 @@
   </si>
   <si>
     <t>Fax Sent Detail Report</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>QueryDrillGridOne</t>
+  </si>
+  <si>
+    <t>OrgUnitID</t>
+  </si>
+  <si>
+    <t>QueryToGetOrgunitID</t>
+  </si>
+  <si>
+    <t>01-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>08-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>SELECT X.SenderNumber as [Sender Number], COUNT(X.SenderNumber) Count FROM ( SELECT  [ANI]  SenderNumber 
+FROM Fax_Sent_Details  WHERE [ReportDateTime] &gt;= 'ReportBeforeDate' 
+AND [ReportDateTime] &lt;= 'ReportAfterDate' AND Result is not null   
+AND ANI IN (SELECT DISTINCT DNIS FROM Fax_Dnis WHERE OrgUnit in 
+(SELECT DISTINCT TeamID FROM [fn_Generic_AgentHierarchy]('orgunit','OrgUnitID','')))) X 
+GROUP BY [SenderNumber];</t>
+  </si>
+  <si>
+    <t>SELECT [ANI] as [Sender Number],jobID as [Job ID],[FileName] as [File Name],SIPNumber,
+[ErrorString] as [Error String],[SentDateTime] as [Date Time],Result,[Attempts] as [Remaining Attempts],[PageCount] as [Page Count],
+Fax_Sent_Details.[RecipientNumber] as [Recipient Number],
+[CallDuration] as [Call Duration],[SendStatus] as [Send Status],[SentBy] as [Sent By], '' as [Preview] 
+from Fax_Sent_Details WHERE [ReportDateTime] &gt;= 'ReportBeforeDate' AND [ReportDateTime] &lt;= 'ReportAfterDate' and 
+Result is not null and Fax_Sent_Details.[ANI] LIKE 'SenderNumberCapturedFromUI' 
+--AND ANI IN (SELECT DISTINCT DNIS FROM Fax_Dnis WHERE OrgUnit in 
+--(SELECT DISTINCT TeamID FROM [fn_Generic_AgentHierarchy]('orgunit','OrgUnitID','')))
+ORDER BY [ReportDateTime] ASC;</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Select TeamID as OrgUnitID from AGT_TEAMS where Teamname='XXXX';</t>
   </si>
 </sst>
 </file>
@@ -193,11 +236,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -481,7 +533,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +905,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1073,4 +1125,86 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/FaxSentDetailsReport.xlsx
+++ b/ocms/src/test/resources/TestData/FaxSentDetailsReport.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB33815A-9C8A-40D0-AE04-BB18BC9ECB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="8040" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="57">
   <si>
     <t>Report Channel</t>
   </si>
@@ -166,18 +167,34 @@
     <t>QueryToGetOrgunitID</t>
   </si>
   <si>
-    <t>01-04-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>08-04-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>SELECT X.SenderNumber as [Sender Number], COUNT(X.SenderNumber) Count FROM ( SELECT  [ANI]  SenderNumber 
+    <t xml:space="preserve">SELECT X.SenderNumber as [Sender Number], COUNT(X.SenderNumber) Count FROM ( SELECT  [ANI]  SenderNumber 
 FROM Fax_Sent_Details  WHERE [ReportDateTime] &gt;= 'ReportBeforeDate' 
 AND [ReportDateTime] &lt;= 'ReportAfterDate' AND Result is not null   
 AND ANI IN (SELECT DISTINCT DNIS FROM Fax_Dnis WHERE OrgUnit in 
 (SELECT DISTINCT TeamID FROM [fn_Generic_AgentHierarchy]('orgunit','OrgUnitID','')))) X 
-GROUP BY [SenderNumber];</t>
+GROUP BY [SenderNumber];
+</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Select TeamID as OrgUnitID from AGT_TEAMS where Teamname='XXXX';</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Delete</t>
   </si>
   <si>
     <t>SELECT [ANI] as [Sender Number],jobID as [Job ID],[FileName] as [File Name],SIPNumber,
@@ -186,21 +203,21 @@
 [CallDuration] as [Call Duration],[SendStatus] as [Send Status],[SentBy] as [Sent By], '' as [Preview] 
 from Fax_Sent_Details WHERE [ReportDateTime] &gt;= 'ReportBeforeDate' AND [ReportDateTime] &lt;= 'ReportAfterDate' and 
 Result is not null and Fax_Sent_Details.[ANI] LIKE 'SenderNumberCapturedFromUI' 
---AND ANI IN (SELECT DISTINCT DNIS FROM Fax_Dnis WHERE OrgUnit in 
---(SELECT DISTINCT TeamID FROM [fn_Generic_AgentHierarchy]('orgunit','OrgUnitID','')))
+AND ANI IN (SELECT DISTINCT DNIS FROM Fax_Dnis WHERE OrgUnit in 
+(SELECT DISTINCT TeamID FROM [fn_Generic_AgentHierarchy]('orgunit','OrgUnitID','')))
 ORDER BY [ReportDateTime] ASC;</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Select TeamID as OrgUnitID from AGT_TEAMS where Teamname='XXXX';</t>
+    <t>01-12-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>31-12-2020 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,11 +258,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -522,30 +539,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -586,25 +603,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,8 +647,11 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -655,8 +676,11 @@
       <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -682,7 +706,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -708,7 +732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -732,6 +756,58 @@
       </c>
       <c r="H5" s="3" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -741,22 +817,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,7 +846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -790,22 +866,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" activeCellId="1" sqref="A2:B2 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -845,23 +921,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -901,23 +977,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +1013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -963,24 +1039,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" customWidth="1"/>
+    <col min="9" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1044,7 +1121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1055,10 +1132,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -1070,7 +1147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1081,10 +1158,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -1096,7 +1173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,10 +1184,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -1128,25 +1205,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.453125" customWidth="1"/>
+    <col min="7" max="7" width="32.453125" customWidth="1"/>
+    <col min="9" max="9" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1232,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
@@ -1175,7 +1251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="406" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1185,23 +1261,23 @@
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
